--- a/duplication_changes.xlsx
+++ b/duplication_changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,96 +449,330 @@
           <t>Duplications_april</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duplication Difference</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>22.6</v>
+        <v>10.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.699999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.7</v>
+        <v>10.5</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.699999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.6</v>
+        <v>13.6</v>
       </c>
       <c r="C4" t="n">
-        <v>30.4</v>
+        <v>8.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.199999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.4</v>
+        <v>8.4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3</v>
+        <v>13.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.199999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.3</v>
+        <v>23.5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>22.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.6</v>
+        <v>6.6</v>
       </c>
       <c r="C7" t="n">
-        <v>23.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>l3-angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3999999999999986</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.799999999999997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>l3-net-business-ontrex</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1000000000000005</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.09999999999999964</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>l3-net-lunge-business</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-8.399999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B21" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C21" t="n">
         <v>8.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
   </sheetData>
